--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,118 +49,118 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -521,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6818181818181818</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3133047210300429</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>427</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
       <c r="M7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,45 +829,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C8">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,45 +855,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.175</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>66</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,21 +881,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1062,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7397260273972602</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1166,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1218,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1244,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6538461538461539</v>
+        <v>0.6625</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1270,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1296,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,15 +1271,15 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5757575757575758</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L25">
         <v>19</v>
@@ -1348,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5666666666666667</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1374,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5446009389671361</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L27">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1400,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1426,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5208333333333334</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1452,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1478,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4651162790697674</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1504,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1530,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4347826086956522</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1556,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1582,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3125</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1608,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2972972972972973</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1634,7 +1583,33 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.008874357776739842</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>0.9</v>
+      </c>
+      <c r="O37">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,105 +43,102 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -151,16 +148,16 @@
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +608,13 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6388888888888888</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5856164383561644</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -737,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1904761904761905</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>153</v>
+        <v>424</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1724806201550388</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>427</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +860,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -915,13 +912,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +938,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.7578125</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +990,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1019,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1045,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1071,13 +1068,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7166666666666667</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1097,13 +1094,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1123,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.70625</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,13 +1146,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6901408450704225</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1175,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6886792452830188</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1198,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6625</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,13 +1224,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1253,13 +1250,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5957446808510638</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1305,13 +1302,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5319148936170213</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1331,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5238095238095238</v>
+        <v>0.5117493472584856</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1354,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5143603133159269</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1380,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,13 +1406,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4791666666666667</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1432,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4470588235294118</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L31">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="M31">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1461,13 +1458,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4135593220338983</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L32">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1484,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3692307692307693</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.358974358974359</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,13 +1536,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3561643835616438</v>
+        <v>0.328125</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1565,13 +1562,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3389121338912134</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L36">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1583,33 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37">
-        <v>0.008874357776739842</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>0.9</v>
-      </c>
-      <c r="O37">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2122</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
